--- a/Code/Results/Cases/Case_3_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.258413108763563</v>
+        <v>0.6777082289699194</v>
       </c>
       <c r="C2">
-        <v>0.103517174925166</v>
+        <v>0.2002750294481057</v>
       </c>
       <c r="D2">
-        <v>0.06299518938784843</v>
+        <v>0.04233067547223612</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5802554977106027</v>
+        <v>0.9286151925412298</v>
       </c>
       <c r="G2">
-        <v>0.0008085244804177271</v>
+        <v>0.00245660782892662</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9288286837719966</v>
+        <v>0.3217945786725807</v>
       </c>
       <c r="L2">
-        <v>0.4004768305847506</v>
+        <v>0.3030788290682551</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.833318573776042</v>
+        <v>1.738431108733049</v>
       </c>
       <c r="O2">
-        <v>1.767634023198354</v>
+        <v>3.295122643933951</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.095117684649125</v>
+        <v>0.6333592719508658</v>
       </c>
       <c r="C3">
-        <v>0.105629775634176</v>
+        <v>0.2012658824147486</v>
       </c>
       <c r="D3">
-        <v>0.05773205652624824</v>
+        <v>0.04044954733408446</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5510873197708293</v>
+        <v>0.9274437162160751</v>
       </c>
       <c r="G3">
-        <v>0.0008121930760831009</v>
+        <v>0.002459050399711322</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8075651250643148</v>
+        <v>0.2860315144321248</v>
       </c>
       <c r="L3">
-        <v>0.3533525787518812</v>
+        <v>0.2919336572879843</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8757321317162408</v>
+        <v>1.756481030562854</v>
       </c>
       <c r="O3">
-        <v>1.718842423242108</v>
+        <v>3.304928512447987</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9953699523645412</v>
+        <v>0.6063794097092625</v>
       </c>
       <c r="C4">
-        <v>0.1069833968663954</v>
+        <v>0.2019090694108527</v>
       </c>
       <c r="D4">
-        <v>0.05448449753597373</v>
+        <v>0.03928133400210498</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5341938841423044</v>
+        <v>0.9272362135934458</v>
       </c>
       <c r="G4">
-        <v>0.0008145223927893328</v>
+        <v>0.002460631215894182</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7332392423480343</v>
+        <v>0.26409511240999</v>
       </c>
       <c r="L4">
-        <v>0.3248259483161746</v>
+        <v>0.2852636740100536</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9028999336217636</v>
+        <v>1.768129488053266</v>
       </c>
       <c r="O4">
-        <v>1.692165232584728</v>
+        <v>3.312637939606248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.954833793622754</v>
+        <v>0.5954485219349408</v>
       </c>
       <c r="C5">
-        <v>0.1075491771686075</v>
+        <v>0.2021799446060903</v>
       </c>
       <c r="D5">
-        <v>0.05315687905889632</v>
+        <v>0.03880198137560598</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5275522271645343</v>
+        <v>0.9272804059047672</v>
       </c>
       <c r="G5">
-        <v>0.000815491231447681</v>
+        <v>0.002461295856489717</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7029725439778076</v>
+        <v>0.2551618970499163</v>
       </c>
       <c r="L5">
-        <v>0.3132946997523334</v>
+        <v>0.2825892075816085</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9142473691483284</v>
+        <v>1.773018574599851</v>
       </c>
       <c r="O5">
-        <v>1.682081243435221</v>
+        <v>3.316204305763051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9481090432151404</v>
+        <v>0.5936373172808942</v>
       </c>
       <c r="C6">
-        <v>0.1076439793961175</v>
+        <v>0.2022254535997785</v>
       </c>
       <c r="D6">
-        <v>0.05293616916190302</v>
+        <v>0.03872218678142048</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5264636688076223</v>
+        <v>0.9272955219808097</v>
       </c>
       <c r="G6">
-        <v>0.0008156533005677177</v>
+        <v>0.00246140745631269</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6979477797345055</v>
+        <v>0.2536789218443545</v>
       </c>
       <c r="L6">
-        <v>0.3113853430731268</v>
+        <v>0.282147749757371</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9161481014799993</v>
+        <v>1.773838994650944</v>
       </c>
       <c r="O6">
-        <v>1.680453275822714</v>
+        <v>3.316822152806608</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9948228377528494</v>
+        <v>0.6062317335024545</v>
       </c>
       <c r="C7">
-        <v>0.1069909698501252</v>
+        <v>0.2019126869855032</v>
       </c>
       <c r="D7">
-        <v>0.05446661011217202</v>
+        <v>0.03927488260323742</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5341033469579202</v>
+        <v>0.9272362882012288</v>
       </c>
       <c r="G7">
-        <v>0.0008145353790461606</v>
+        <v>0.002460640096649377</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7328309814268295</v>
+        <v>0.2639746108677059</v>
       </c>
       <c r="L7">
-        <v>0.324670066482085</v>
+        <v>0.2852274285891809</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9030518588851892</v>
+        <v>1.768194848054655</v>
       </c>
       <c r="O7">
-        <v>1.692026097823515</v>
+        <v>3.312684317090714</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.201990523365879</v>
+        <v>0.6623650559994303</v>
       </c>
       <c r="C8">
-        <v>0.1042338580917601</v>
+        <v>0.2006094654453534</v>
       </c>
       <c r="D8">
-        <v>0.06118365425540162</v>
+        <v>0.04168481298356141</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5699794803100957</v>
+        <v>0.9281050776062969</v>
       </c>
       <c r="G8">
-        <v>0.0008097736695417383</v>
+        <v>0.002457433237843069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8869830361508946</v>
+        <v>0.3094591110717033</v>
       </c>
       <c r="L8">
-        <v>0.3841381877806214</v>
+        <v>0.2992000551065104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8477049833456967</v>
+        <v>1.74453729818211</v>
       </c>
       <c r="O8">
-        <v>1.750106324235674</v>
+        <v>3.298153297963466</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.613219948092677</v>
+        <v>0.7744094459341113</v>
       </c>
       <c r="C9">
-        <v>0.09927673702416762</v>
+        <v>0.1983290237220903</v>
       </c>
       <c r="D9">
-        <v>0.07423896625337534</v>
+        <v>0.04630525738591018</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6490104419663822</v>
+        <v>0.9338684136866675</v>
       </c>
       <c r="G9">
-        <v>0.0008010302090574473</v>
+        <v>0.002451785091205074</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.190854763763525</v>
+        <v>0.3988154236440664</v>
       </c>
       <c r="L9">
-        <v>0.5044235427504589</v>
+        <v>0.327973969643395</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7484184077158007</v>
+        <v>1.702633585672655</v>
       </c>
       <c r="O9">
-        <v>1.891842265502532</v>
+        <v>3.283054557363386</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.91970407896622</v>
+        <v>0.8579080837297397</v>
       </c>
       <c r="C10">
-        <v>0.0959108135666753</v>
+        <v>0.1968200132249578</v>
       </c>
       <c r="D10">
-        <v>0.08377505097440263</v>
+        <v>0.04963492100583267</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.713276228632381</v>
+        <v>0.9405780673657063</v>
       </c>
       <c r="G10">
-        <v>0.000794946562803045</v>
+        <v>0.002448022016216954</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.415898390251726</v>
+        <v>0.4645497491867729</v>
       </c>
       <c r="L10">
-        <v>0.5956777602439871</v>
+        <v>0.34995337302189</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6815712918633494</v>
+        <v>1.674582073930444</v>
       </c>
       <c r="O10">
-        <v>2.015616127648741</v>
+        <v>3.280130602906638</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.06039263845048</v>
+        <v>0.8961462873471078</v>
       </c>
       <c r="C11">
-        <v>0.0944399980280366</v>
+        <v>0.1961693841487993</v>
       </c>
       <c r="D11">
-        <v>0.08810489939047272</v>
+        <v>0.05113542769280599</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7440751452674874</v>
+        <v>0.9441681902478649</v>
       </c>
       <c r="G11">
-        <v>0.0007922476578734805</v>
+        <v>0.002446393229351705</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.518862937636356</v>
+        <v>0.4944696742279007</v>
       </c>
       <c r="L11">
-        <v>0.6379704296325315</v>
+        <v>0.360135134519652</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6525943760469541</v>
+        <v>1.662414358936788</v>
       </c>
       <c r="O11">
-        <v>2.076822422644966</v>
+        <v>3.280575060483812</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.113877651713381</v>
+        <v>0.9106621541210984</v>
       </c>
       <c r="C12">
-        <v>0.09389176782521247</v>
+        <v>0.1959281389110679</v>
       </c>
       <c r="D12">
-        <v>0.08974363694387932</v>
+        <v>0.05170157402339726</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7559820240974773</v>
+        <v>0.9456050001101488</v>
       </c>
       <c r="G12">
-        <v>0.0007912350664642254</v>
+        <v>0.002445788331525148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.557955241069664</v>
+        <v>0.5058016523861113</v>
       </c>
       <c r="L12">
-        <v>0.654111380967862</v>
+        <v>0.3640170330633907</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6418374767639836</v>
+        <v>1.657892064130439</v>
       </c>
       <c r="O12">
-        <v>2.100760991717408</v>
+        <v>3.280998541904722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.102348936276996</v>
+        <v>0.9075343170362657</v>
       </c>
       <c r="C13">
-        <v>0.09400944955491752</v>
+        <v>0.1959798673442457</v>
       </c>
       <c r="D13">
-        <v>0.08939073985580137</v>
+        <v>0.05157973642844382</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7534064949322357</v>
+        <v>0.9452921196823638</v>
       </c>
       <c r="G13">
-        <v>0.0007914527341269964</v>
+        <v>0.002445918079415299</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.549531201667946</v>
+        <v>0.5033610292892945</v>
       </c>
       <c r="L13">
-        <v>0.6506293275003117</v>
+        <v>0.3631798286328518</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6441443915102543</v>
+        <v>1.65886222385183</v>
       </c>
       <c r="O13">
-        <v>2.095570604588772</v>
+        <v>3.280895988748512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.064788525871052</v>
+        <v>0.8973398010301139</v>
       </c>
       <c r="C14">
-        <v>0.09439471938825506</v>
+        <v>0.1961494339691612</v>
       </c>
       <c r="D14">
-        <v>0.08823973524889084</v>
+        <v>0.05118204637980028</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.745049727304135</v>
+        <v>0.9442848482993611</v>
       </c>
       <c r="G14">
-        <v>0.0007921641650308238</v>
+        <v>0.002446343226208503</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.52207694239425</v>
+        <v>0.4954019266376974</v>
       </c>
       <c r="L14">
-        <v>0.6392957575055931</v>
+        <v>0.3604539741793644</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6517050096778512</v>
+        <v>1.662040595952629</v>
       </c>
       <c r="O14">
-        <v>2.078776273449279</v>
+        <v>3.280604786512129</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.041809784467091</v>
+        <v>0.8911000194399321</v>
       </c>
       <c r="C15">
-        <v>0.09463184765900934</v>
+        <v>0.1962539664731473</v>
       </c>
       <c r="D15">
-        <v>0.08753460582981631</v>
+        <v>0.05093818034445974</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7399633301893687</v>
+        <v>0.9436779322126085</v>
       </c>
       <c r="G15">
-        <v>0.0007926011510802058</v>
+        <v>0.002446605187487396</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.505274203424904</v>
+        <v>0.4905269857973451</v>
       </c>
       <c r="L15">
-        <v>0.632370393142736</v>
+        <v>0.3587877310781948</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6563645511763845</v>
+        <v>1.663998558583693</v>
       </c>
       <c r="O15">
-        <v>2.068590113510908</v>
+        <v>3.280459647824557</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.910537523301883</v>
+        <v>0.8554141859752633</v>
       </c>
       <c r="C16">
-        <v>0.09600815412731833</v>
+        <v>0.1968632527565646</v>
       </c>
       <c r="D16">
-        <v>0.08349194541127503</v>
+        <v>0.04953657202967321</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7112965224056325</v>
+        <v>0.9403542645643199</v>
       </c>
       <c r="G16">
-        <v>0.0007951242858160718</v>
+        <v>0.00244813012800019</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.409182722790263</v>
+        <v>0.462594712093761</v>
       </c>
       <c r="L16">
-        <v>0.5929306661021059</v>
+        <v>0.3492916526844994</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6834946670405166</v>
+        <v>1.675389202812794</v>
       </c>
       <c r="O16">
-        <v>2.011719498425691</v>
+        <v>3.280137265009245</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.830349505491114</v>
+        <v>0.833586725435282</v>
       </c>
       <c r="C17">
-        <v>0.09686797195468344</v>
+        <v>0.1972461934877359</v>
       </c>
       <c r="D17">
-        <v>0.08101001456078194</v>
+        <v>0.04867308280586968</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6941241402732743</v>
+        <v>0.9384530372240505</v>
       </c>
       <c r="G17">
-        <v>0.0007966894094490223</v>
+        <v>0.002449086862925998</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.350396717642468</v>
+        <v>0.4454631783824539</v>
       </c>
       <c r="L17">
-        <v>0.5689448452662447</v>
+        <v>0.3435130006590583</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7005118911297323</v>
+        <v>1.682528942193264</v>
       </c>
       <c r="O17">
-        <v>1.978125333680282</v>
+        <v>3.280394000786856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.78434504014524</v>
+        <v>0.8210561193413639</v>
       </c>
       <c r="C18">
-        <v>0.09736819422679233</v>
+        <v>0.1974698241772757</v>
       </c>
       <c r="D18">
-        <v>0.07958168645786401</v>
+        <v>0.04817509400191256</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6843930427656346</v>
+        <v>0.9374101304272031</v>
       </c>
       <c r="G18">
-        <v>0.0007975961094924258</v>
+        <v>0.002449644972248664</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.316639115756175</v>
+        <v>0.4356112081053993</v>
       </c>
       <c r="L18">
-        <v>0.5552214611297188</v>
+        <v>0.3402065221303445</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7104339080918827</v>
+        <v>1.68669134832393</v>
       </c>
       <c r="O18">
-        <v>1.959260563618216</v>
+        <v>3.280708700647551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.768788116568174</v>
+        <v>0.8168176090983081</v>
       </c>
       <c r="C19">
-        <v>0.09753853440970772</v>
+        <v>0.1975461216087098</v>
       </c>
       <c r="D19">
-        <v>0.07909793534442144</v>
+        <v>0.04800625542280557</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6811227758269141</v>
+        <v>0.9370657167667034</v>
       </c>
       <c r="G19">
-        <v>0.0007979042287249822</v>
+        <v>0.002449835283463752</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.30521824734069</v>
+        <v>0.4322757962556807</v>
       </c>
       <c r="L19">
-        <v>0.5505870400900079</v>
+        <v>0.3390899697188843</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7138160783479179</v>
+        <v>1.688110251923416</v>
       </c>
       <c r="O19">
-        <v>1.952950234380751</v>
+        <v>3.280843940784791</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.838873299796489</v>
+        <v>0.8359078197405552</v>
       </c>
       <c r="C20">
-        <v>0.09677585485412621</v>
+        <v>0.1972050797999572</v>
       </c>
       <c r="D20">
-        <v>0.08127429974965139</v>
+        <v>0.0487651408100831</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6959369248321465</v>
+        <v>0.9386501864817731</v>
       </c>
       <c r="G20">
-        <v>0.0007965221316054339</v>
+        <v>0.002448984207762092</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.356648823893096</v>
+        <v>0.4472866938164941</v>
       </c>
       <c r="L20">
-        <v>0.5714905664381291</v>
+        <v>0.3441263632325899</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6986864226652081</v>
+        <v>1.681763127381709</v>
       </c>
       <c r="O20">
-        <v>1.981653723476143</v>
+        <v>3.280349383663321</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.075815022952213</v>
+        <v>0.9003332088495313</v>
       </c>
       <c r="C21">
-        <v>0.09428131874979684</v>
+        <v>0.1960994889526049</v>
       </c>
       <c r="D21">
-        <v>0.08857783471487579</v>
+        <v>0.05129891377342233</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7474975319085502</v>
+        <v>0.944578610492016</v>
       </c>
       <c r="G21">
-        <v>0.0007919549483505772</v>
+        <v>0.00244621802801504</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.530138018649779</v>
+        <v>0.4977396590308842</v>
       </c>
       <c r="L21">
-        <v>0.6426211807332436</v>
+        <v>0.3612539107886761</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.649478326052499</v>
+        <v>1.661104713916576</v>
       </c>
       <c r="O21">
-        <v>2.083688051870581</v>
+        <v>3.280683394352423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.231904135387765</v>
+        <v>0.9426478004000387</v>
       </c>
       <c r="C22">
-        <v>0.0927019422398665</v>
+        <v>0.1954068373351454</v>
       </c>
       <c r="D22">
-        <v>0.09334612581785251</v>
+        <v>0.05294284468298116</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7826273900742819</v>
+        <v>0.9489037724437992</v>
       </c>
       <c r="G22">
-        <v>0.000789024746290948</v>
+        <v>0.002444479439986786</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.644125719633848</v>
+        <v>0.5307247331697909</v>
       </c>
       <c r="L22">
-        <v>0.6898483489462137</v>
+        <v>0.3726009419406182</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.618582364293518</v>
+        <v>1.648100795602715</v>
       </c>
       <c r="O22">
-        <v>2.154838525963612</v>
+        <v>3.282389041040716</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.14847407084028</v>
+        <v>0.9200448168603543</v>
       </c>
       <c r="C23">
-        <v>0.09354020410250996</v>
+        <v>0.1957737871435015</v>
       </c>
       <c r="D23">
-        <v>0.09080155402252643</v>
+        <v>0.05206655732972365</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7637402414175938</v>
+        <v>0.9465541349619002</v>
       </c>
       <c r="G23">
-        <v>0.0007905837948751137</v>
+        <v>0.002445401036794948</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.583227307480115</v>
+        <v>0.5131191238851613</v>
       </c>
       <c r="L23">
-        <v>0.6645700135225354</v>
+        <v>0.3665308213194436</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6349529150467088</v>
+        <v>1.654995680725987</v>
       </c>
       <c r="O23">
-        <v>2.116435966527462</v>
+        <v>3.281342615083105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.835019393232585</v>
+        <v>0.8348583959786993</v>
       </c>
       <c r="C24">
-        <v>0.09681748261682444</v>
+        <v>0.1972236564789895</v>
       </c>
       <c r="D24">
-        <v>0.08115482090117609</v>
+        <v>0.04872352623512199</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.695116925514732</v>
+        <v>0.9385608991347496</v>
       </c>
       <c r="G24">
-        <v>0.0007965977364283092</v>
+        <v>0.002449030593025775</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.353822125645451</v>
+        <v>0.4464622912464904</v>
       </c>
       <c r="L24">
-        <v>0.5703394401258919</v>
+        <v>0.3438490129656202</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6995112860416395</v>
+        <v>1.682109172606007</v>
       </c>
       <c r="O24">
-        <v>1.980057144243546</v>
+        <v>3.280369034557225</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.501307665934803</v>
+        <v>0.7438898985041931</v>
       </c>
       <c r="C25">
-        <v>0.1005694442419696</v>
+        <v>0.1989166220521152</v>
       </c>
       <c r="D25">
-        <v>0.07071811420814811</v>
+        <v>0.04506666404703452</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6266107286438185</v>
+        <v>0.9318746161228759</v>
       </c>
       <c r="G25">
-        <v>0.0008033341417584461</v>
+        <v>0.002453244894362175</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.108398286097838</v>
+        <v>0.3746263588055569</v>
       </c>
       <c r="L25">
-        <v>0.4714263752802736</v>
+        <v>0.3200426166029899</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7742421992818151</v>
+        <v>1.713489248912534</v>
       </c>
       <c r="O25">
-        <v>1.850253081075152</v>
+        <v>3.285704748482601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6777082289699194</v>
+        <v>1.258413108763563</v>
       </c>
       <c r="C2">
-        <v>0.2002750294481057</v>
+        <v>0.1035171749254999</v>
       </c>
       <c r="D2">
-        <v>0.04233067547223612</v>
+        <v>0.06299518938789106</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9286151925412298</v>
+        <v>0.5802554977106098</v>
       </c>
       <c r="G2">
-        <v>0.00245660782892662</v>
+        <v>0.0008085244804395895</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3217945786725807</v>
+        <v>0.9288286837719113</v>
       </c>
       <c r="L2">
-        <v>0.3030788290682551</v>
+        <v>0.4004768305847364</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.738431108733049</v>
+        <v>0.8333185737759905</v>
       </c>
       <c r="O2">
-        <v>3.295122643933951</v>
+        <v>1.767634023198298</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6333592719508658</v>
+        <v>1.095117684649267</v>
       </c>
       <c r="C3">
-        <v>0.2012658824147486</v>
+        <v>0.1056297756344922</v>
       </c>
       <c r="D3">
-        <v>0.04044954733408446</v>
+        <v>0.05773205652629088</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9274437162160751</v>
+        <v>0.5510873197708293</v>
       </c>
       <c r="G3">
-        <v>0.002459050399711322</v>
+        <v>0.0008121930760258398</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2860315144321248</v>
+        <v>0.8075651250643148</v>
       </c>
       <c r="L3">
-        <v>0.2919336572879843</v>
+        <v>0.353352578751938</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.756481030562854</v>
+        <v>0.8757321317162514</v>
       </c>
       <c r="O3">
-        <v>3.304928512447987</v>
+        <v>1.71884242324208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6063794097092625</v>
+        <v>0.9953699523646833</v>
       </c>
       <c r="C4">
-        <v>0.2019090694108527</v>
+        <v>0.1069833968663882</v>
       </c>
       <c r="D4">
-        <v>0.03928133400210498</v>
+        <v>0.0544844975362011</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9272362135934458</v>
+        <v>0.5341938841423115</v>
       </c>
       <c r="G4">
-        <v>0.002460631215894182</v>
+        <v>0.0008145223927679969</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.26409511240999</v>
+        <v>0.7332392423480059</v>
       </c>
       <c r="L4">
-        <v>0.2852636740100536</v>
+        <v>0.3248259483161178</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.768129488053266</v>
+        <v>0.9028999336217538</v>
       </c>
       <c r="O4">
-        <v>3.312637939606248</v>
+        <v>1.692165232584699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5954485219349408</v>
+        <v>0.9548337936227256</v>
       </c>
       <c r="C5">
-        <v>0.2021799446060903</v>
+        <v>0.1075491771688437</v>
       </c>
       <c r="D5">
-        <v>0.03880198137560598</v>
+        <v>0.05315687905904554</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9272804059047672</v>
+        <v>0.5275522271645272</v>
       </c>
       <c r="G5">
-        <v>0.002461295856489717</v>
+        <v>0.0008154912314468816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2551618970499163</v>
+        <v>0.702972543977836</v>
       </c>
       <c r="L5">
-        <v>0.2825892075816085</v>
+        <v>0.3132946997522481</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.773018574599851</v>
+        <v>0.9142473691483701</v>
       </c>
       <c r="O5">
-        <v>3.316204305763051</v>
+        <v>1.682081243435221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5936373172808942</v>
+        <v>0.9481090432150836</v>
       </c>
       <c r="C6">
-        <v>0.2022254535997785</v>
+        <v>0.1076439793963608</v>
       </c>
       <c r="D6">
-        <v>0.03872218678142048</v>
+        <v>0.05293616916190302</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9272955219808097</v>
+        <v>0.5264636688076223</v>
       </c>
       <c r="G6">
-        <v>0.00246140745631269</v>
+        <v>0.0008156533005678201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2536789218443545</v>
+        <v>0.6979477797343634</v>
       </c>
       <c r="L6">
-        <v>0.282147749757371</v>
+        <v>0.3113853430730131</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.773838994650944</v>
+        <v>0.9161481014800001</v>
       </c>
       <c r="O6">
-        <v>3.316822152806608</v>
+        <v>1.680453275822714</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6062317335024545</v>
+        <v>0.9948228377528778</v>
       </c>
       <c r="C7">
-        <v>0.2019126869855032</v>
+        <v>0.1069909698501252</v>
       </c>
       <c r="D7">
-        <v>0.03927488260323742</v>
+        <v>0.05446661011216491</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9272362882012288</v>
+        <v>0.5341033469578989</v>
       </c>
       <c r="G7">
-        <v>0.002460640096649377</v>
+        <v>0.0008145353790257092</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2639746108677059</v>
+        <v>0.7328309814268721</v>
       </c>
       <c r="L7">
-        <v>0.2852274285891809</v>
+        <v>0.3246700664822839</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.768194848054655</v>
+        <v>0.9030518588851901</v>
       </c>
       <c r="O7">
-        <v>3.312684317090714</v>
+        <v>1.692026097823543</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6623650559994303</v>
+        <v>1.201990523365993</v>
       </c>
       <c r="C8">
-        <v>0.2006094654453534</v>
+        <v>0.1042338580915878</v>
       </c>
       <c r="D8">
-        <v>0.04168481298356141</v>
+        <v>0.06118365425544425</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9281050776062969</v>
+        <v>0.5699794803100886</v>
       </c>
       <c r="G8">
-        <v>0.002457433237843069</v>
+        <v>0.0008097736695643578</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3094591110717033</v>
+        <v>0.8869830361509798</v>
       </c>
       <c r="L8">
-        <v>0.2992000551065104</v>
+        <v>0.3841381877806356</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.74453729818211</v>
+        <v>0.8477049833456709</v>
       </c>
       <c r="O8">
-        <v>3.298153297963466</v>
+        <v>1.750106324235702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7744094459341113</v>
+        <v>1.613219948092592</v>
       </c>
       <c r="C9">
-        <v>0.1983290237220903</v>
+        <v>0.09927673702406459</v>
       </c>
       <c r="D9">
-        <v>0.04630525738591018</v>
+        <v>0.07423896625331849</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9338684136866675</v>
+        <v>0.6490104419663609</v>
       </c>
       <c r="G9">
-        <v>0.002451785091205074</v>
+        <v>0.0008010302090563202</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3988154236440664</v>
+        <v>1.190854763763497</v>
       </c>
       <c r="L9">
-        <v>0.327973969643395</v>
+        <v>0.5044235427503736</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.702633585672655</v>
+        <v>0.7484184077157856</v>
       </c>
       <c r="O9">
-        <v>3.283054557363386</v>
+        <v>1.891842265502504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8579080837297397</v>
+        <v>1.919704078966362</v>
       </c>
       <c r="C10">
-        <v>0.1968200132249578</v>
+        <v>0.09591081356667175</v>
       </c>
       <c r="D10">
-        <v>0.04963492100583267</v>
+        <v>0.08377505097429605</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9405780673657063</v>
+        <v>0.713276228632381</v>
       </c>
       <c r="G10">
-        <v>0.002448022016216954</v>
+        <v>0.0007949465628033725</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4645497491867729</v>
+        <v>1.415898390251641</v>
       </c>
       <c r="L10">
-        <v>0.34995337302189</v>
+        <v>0.5956777602440013</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.674582073930444</v>
+        <v>0.6815712918633601</v>
       </c>
       <c r="O10">
-        <v>3.280130602906638</v>
+        <v>2.015616127648798</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8961462873471078</v>
+        <v>2.060392638450253</v>
       </c>
       <c r="C11">
-        <v>0.1961693841487993</v>
+        <v>0.09443999802757119</v>
       </c>
       <c r="D11">
-        <v>0.05113542769280599</v>
+        <v>0.08810489939040878</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9441681902478649</v>
+        <v>0.7440751452674732</v>
       </c>
       <c r="G11">
-        <v>0.002446393229351705</v>
+        <v>0.0007922476578453462</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4944696742279007</v>
+        <v>1.518862937636328</v>
       </c>
       <c r="L11">
-        <v>0.360135134519652</v>
+        <v>0.6379704296325173</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.662414358936788</v>
+        <v>0.6525943760470092</v>
       </c>
       <c r="O11">
-        <v>3.280575060483812</v>
+        <v>2.076822422644852</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9106621541210984</v>
+        <v>2.113877651713494</v>
       </c>
       <c r="C12">
-        <v>0.1959281389110679</v>
+        <v>0.09389176782486786</v>
       </c>
       <c r="D12">
-        <v>0.05170157402339726</v>
+        <v>0.0897436369439859</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9456050001101488</v>
+        <v>0.7559820240974915</v>
       </c>
       <c r="G12">
-        <v>0.002445788331525148</v>
+        <v>0.0007912350664638906</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5058016523861113</v>
+        <v>1.557955241069777</v>
       </c>
       <c r="L12">
-        <v>0.3640170330633907</v>
+        <v>0.6541113809678336</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.657892064130439</v>
+        <v>0.6418374767639783</v>
       </c>
       <c r="O12">
-        <v>3.280998541904722</v>
+        <v>2.100760991717493</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9075343170362657</v>
+        <v>2.10234893627694</v>
       </c>
       <c r="C13">
-        <v>0.1959798673442457</v>
+        <v>0.09400944955467949</v>
       </c>
       <c r="D13">
-        <v>0.05157973642844382</v>
+        <v>0.0893907398559648</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9452921196823638</v>
+        <v>0.7534064949322214</v>
       </c>
       <c r="G13">
-        <v>0.002445918079415299</v>
+        <v>0.0007914527341553143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5033610292892945</v>
+        <v>1.549531201667918</v>
       </c>
       <c r="L13">
-        <v>0.3631798286328518</v>
+        <v>0.6506293275002406</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.65886222385183</v>
+        <v>0.6441443915103022</v>
       </c>
       <c r="O13">
-        <v>3.280895988748512</v>
+        <v>2.095570604588744</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8973398010301139</v>
+        <v>2.064788525870938</v>
       </c>
       <c r="C14">
-        <v>0.1961494339691612</v>
+        <v>0.09439471938836874</v>
       </c>
       <c r="D14">
-        <v>0.05118204637980028</v>
+        <v>0.08823973524861373</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9442848482993611</v>
+        <v>0.745049727304135</v>
       </c>
       <c r="G14">
-        <v>0.002446343226208503</v>
+        <v>0.0007921641650579058</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4954019266376974</v>
+        <v>1.522076942394278</v>
       </c>
       <c r="L14">
-        <v>0.3604539741793644</v>
+        <v>0.6392957575055789</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.662040595952629</v>
+        <v>0.6517050096779045</v>
       </c>
       <c r="O14">
-        <v>3.280604786512129</v>
+        <v>2.078776273449222</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8911000194399321</v>
+        <v>2.041809784467318</v>
       </c>
       <c r="C15">
-        <v>0.1962539664731473</v>
+        <v>0.09463184765900579</v>
       </c>
       <c r="D15">
-        <v>0.05093818034445974</v>
+        <v>0.08753460582998684</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9436779322126085</v>
+        <v>0.7399633301893829</v>
       </c>
       <c r="G15">
-        <v>0.002446605187487396</v>
+        <v>0.0007926011510534456</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4905269857973451</v>
+        <v>1.505274203424932</v>
       </c>
       <c r="L15">
-        <v>0.3587877310781948</v>
+        <v>0.6323703931427076</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.663998558583693</v>
+        <v>0.6563645511763898</v>
       </c>
       <c r="O15">
-        <v>3.280459647824557</v>
+        <v>2.068590113510965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8554141859752633</v>
+        <v>1.910537523302054</v>
       </c>
       <c r="C16">
-        <v>0.1968632527565646</v>
+        <v>0.09600815412722596</v>
       </c>
       <c r="D16">
-        <v>0.04953657202967321</v>
+        <v>0.08349194541123239</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9403542645643199</v>
+        <v>0.7112965224056182</v>
       </c>
       <c r="G16">
-        <v>0.00244813012800019</v>
+        <v>0.0007951242858730209</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.462594712093761</v>
+        <v>1.40918272279032</v>
       </c>
       <c r="L16">
-        <v>0.3492916526844994</v>
+        <v>0.5929306661020206</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.675389202812794</v>
+        <v>0.6834946670405202</v>
       </c>
       <c r="O16">
-        <v>3.280137265009245</v>
+        <v>2.011719498425691</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.833586725435282</v>
+        <v>1.830349505491142</v>
       </c>
       <c r="C17">
-        <v>0.1972461934877359</v>
+        <v>0.09686797195500674</v>
       </c>
       <c r="D17">
-        <v>0.04867308280586968</v>
+        <v>0.08101001456100931</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9384530372240505</v>
+        <v>0.6941241402732743</v>
       </c>
       <c r="G17">
-        <v>0.002449086862925998</v>
+        <v>0.0007966894094489237</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4454631783824539</v>
+        <v>1.350396717642383</v>
       </c>
       <c r="L17">
-        <v>0.3435130006590583</v>
+        <v>0.5689448452664578</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.682528942193264</v>
+        <v>0.7005118911296737</v>
       </c>
       <c r="O17">
-        <v>3.280394000786856</v>
+        <v>1.978125333680225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8210561193413639</v>
+        <v>1.784345040145325</v>
       </c>
       <c r="C18">
-        <v>0.1974698241772757</v>
+        <v>0.09736819422659693</v>
       </c>
       <c r="D18">
-        <v>0.04817509400191256</v>
+        <v>0.07958168645789243</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9374101304272031</v>
+        <v>0.6843930427656417</v>
       </c>
       <c r="G18">
-        <v>0.002449644972248664</v>
+        <v>0.0007975961094907949</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4356112081053993</v>
+        <v>1.316639115756089</v>
       </c>
       <c r="L18">
-        <v>0.3402065221303445</v>
+        <v>0.5552214611296904</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.68669134832393</v>
+        <v>0.7104339080918365</v>
       </c>
       <c r="O18">
-        <v>3.280708700647551</v>
+        <v>1.959260563618216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8168176090983081</v>
+        <v>1.76878811656826</v>
       </c>
       <c r="C19">
-        <v>0.1975461216087098</v>
+        <v>0.09753853440996707</v>
       </c>
       <c r="D19">
-        <v>0.04800625542280557</v>
+        <v>0.07909793534437171</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9370657167667034</v>
+        <v>0.6811227758268785</v>
       </c>
       <c r="G19">
-        <v>0.002449835283463752</v>
+        <v>0.0007979042287248582</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4322757962556807</v>
+        <v>1.305218247340918</v>
       </c>
       <c r="L19">
-        <v>0.3390899697188843</v>
+        <v>0.5505870400899653</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.688110251923416</v>
+        <v>0.7138160783478344</v>
       </c>
       <c r="O19">
-        <v>3.280843940784791</v>
+        <v>1.952950234380779</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8359078197405552</v>
+        <v>1.838873299796404</v>
       </c>
       <c r="C20">
-        <v>0.1972050797999572</v>
+        <v>0.09677585485423634</v>
       </c>
       <c r="D20">
-        <v>0.0487651408100831</v>
+        <v>0.08127429974975087</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9386501864817731</v>
+        <v>0.6959369248321607</v>
       </c>
       <c r="G20">
-        <v>0.002448984207762092</v>
+        <v>0.0007965221315491822</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4472866938164941</v>
+        <v>1.35664882389321</v>
       </c>
       <c r="L20">
-        <v>0.3441263632325899</v>
+        <v>0.5714905664381149</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.681763127381709</v>
+        <v>0.698686422665272</v>
       </c>
       <c r="O20">
-        <v>3.280349383663321</v>
+        <v>1.981653723476143</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9003332088495313</v>
+        <v>2.075815022952213</v>
       </c>
       <c r="C21">
-        <v>0.1960994889526049</v>
+        <v>0.09428131874968315</v>
       </c>
       <c r="D21">
-        <v>0.05129891377342233</v>
+        <v>0.08857783471464842</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.944578610492016</v>
+        <v>0.7474975319085502</v>
       </c>
       <c r="G21">
-        <v>0.00244621802801504</v>
+        <v>0.0007919549483508574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4977396590308842</v>
+        <v>1.530138018649779</v>
       </c>
       <c r="L21">
-        <v>0.3612539107886761</v>
+        <v>0.6426211807332436</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.661104713916576</v>
+        <v>0.6494783260525505</v>
       </c>
       <c r="O21">
-        <v>3.280683394352423</v>
+        <v>2.083688051870524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9426478004000387</v>
+        <v>2.231904135387765</v>
       </c>
       <c r="C22">
-        <v>0.1954068373351454</v>
+        <v>0.09270194224010098</v>
       </c>
       <c r="D22">
-        <v>0.05294284468298116</v>
+        <v>0.09334612581785962</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9489037724437992</v>
+        <v>0.7826273900742819</v>
       </c>
       <c r="G22">
-        <v>0.002444479439986786</v>
+        <v>0.0007890247462624233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5307247331697909</v>
+        <v>1.64412571963399</v>
       </c>
       <c r="L22">
-        <v>0.3726009419406182</v>
+        <v>0.6898483489461995</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.648100795602715</v>
+        <v>0.6185823642935233</v>
       </c>
       <c r="O22">
-        <v>3.282389041040716</v>
+        <v>2.15483852596364</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9200448168603543</v>
+        <v>2.14847407084028</v>
       </c>
       <c r="C23">
-        <v>0.1957737871435015</v>
+        <v>0.09354020410250996</v>
       </c>
       <c r="D23">
-        <v>0.05206655732972365</v>
+        <v>0.09080155402257617</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9465541349619002</v>
+        <v>0.7637402414175938</v>
       </c>
       <c r="G23">
-        <v>0.002445401036794948</v>
+        <v>0.0007905837947899555</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5131191238851613</v>
+        <v>1.583227307480115</v>
       </c>
       <c r="L23">
-        <v>0.3665308213194436</v>
+        <v>0.664570013522507</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.654995680725987</v>
+        <v>0.6349529150467177</v>
       </c>
       <c r="O23">
-        <v>3.281342615083105</v>
+        <v>2.116435966527462</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8348583959786993</v>
+        <v>1.835019393232585</v>
       </c>
       <c r="C24">
-        <v>0.1972236564789895</v>
+        <v>0.09681748261752787</v>
       </c>
       <c r="D24">
-        <v>0.04872352623512199</v>
+        <v>0.08115482090111925</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9385608991347496</v>
+        <v>0.6951169255147462</v>
       </c>
       <c r="G24">
-        <v>0.002449030593025775</v>
+        <v>0.0007965977363744138</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4464622912464904</v>
+        <v>1.353822125645223</v>
       </c>
       <c r="L24">
-        <v>0.3438490129656202</v>
+        <v>0.5703394401258919</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.682109172606007</v>
+        <v>0.6995112860416359</v>
       </c>
       <c r="O24">
-        <v>3.280369034557225</v>
+        <v>1.98005714424346</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7438898985041931</v>
+        <v>1.501307665934632</v>
       </c>
       <c r="C25">
-        <v>0.1989166220521152</v>
+        <v>0.1005694442422076</v>
       </c>
       <c r="D25">
-        <v>0.04506666404703452</v>
+        <v>0.07071811420848206</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9318746161228759</v>
+        <v>0.6266107286438185</v>
       </c>
       <c r="G25">
-        <v>0.002453244894362175</v>
+        <v>0.0008033341417293792</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3746263588055569</v>
+        <v>1.108398286097838</v>
       </c>
       <c r="L25">
-        <v>0.3200426166029899</v>
+        <v>0.4714263752802168</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.713489248912534</v>
+        <v>0.7742421992817361</v>
       </c>
       <c r="O25">
-        <v>3.285704748482601</v>
+        <v>1.850253081075124</v>
       </c>
     </row>
   </sheetData>
